--- a/docs/Test cases for Telnyx.xlsx
+++ b/docs/Test cases for Telnyx.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkmts\OneDrive\Рабочий стол\git\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkmts\OneDrive\Рабочий стол\cypress telnyx\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B003681-3A4A-4AB4-B08E-81F6A9AF6268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF75835-84D1-45F1-BB51-24B72D8A8A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1665" windowWidth="20490" windowHeight="18870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1665" windowWidth="20625" windowHeight="18870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase1" sheetId="13" r:id="rId1"/>
@@ -403,9 +403,6 @@
     <t>"Support Center" text should appear</t>
   </si>
   <si>
-    <t>Verify the "Support Center" text appears and the page link matches the link in the "Support Center" after clicking on the "Support Center" link button</t>
-  </si>
-  <si>
     <t>Check that "Confirm email" page is loading after clicking "Submit" button on Sign Up page with filling the correct data ​​in the required fields</t>
   </si>
   <si>
@@ -430,13 +427,16 @@
     <t>Chech that "Support Center" link navigate to "Support Center" page from the "Contact us" page</t>
   </si>
   <si>
-    <t>Check that the "Contact Us" formwith negative scenario when all fields are left empty</t>
-  </si>
-  <si>
     <t>Verify that "Thank you." message appears after submitting Contact Us form with valid credentials launched after clicking "Contact Us" link button on Products page</t>
   </si>
   <si>
-    <t>Check the "Contact Us" form with positive scenario</t>
+    <t>Test the "Contact Us" form with positive scenario</t>
+  </si>
+  <si>
+    <t>Test the "Contact Us" formwith negative scenario when all fields are left empty</t>
+  </si>
+  <si>
+    <t>Verify that after clicking on the "Support Center" button from the Contact Us page the "Support Center" text appears.</t>
   </si>
 </sst>
 </file>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D0FE60-6154-4EE1-856E-0803913FFE8F}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -1873,7 +1873,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:E24"/>
+      <selection activeCell="F1" sqref="F1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="C24" s="74"/>
       <c r="D24" s="73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E24" s="74"/>
       <c r="F24" s="70"/>
@@ -2391,7 +2391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFBE157B-C82B-4C2C-AE31-8C7061D578F2}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:K1"/>
     </sheetView>
   </sheetViews>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -2636,7 +2636,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -3431,7 +3431,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:K1"/>
+      <selection activeCell="B14" sqref="B14:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -3671,7 +3671,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C14" s="76"/>
       <c r="D14" s="76"/>
@@ -4301,7 +4301,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:E22"/>
+      <selection activeCell="F1" sqref="F1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -5017,7 +5017,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -6054,7 +6054,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -6107,7 +6107,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" s="54"/>
       <c r="D17" s="87" t="s">

--- a/docs/Test cases for Telnyx.xlsx
+++ b/docs/Test cases for Telnyx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkmts\OneDrive\Рабочий стол\cypress telnyx\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF75835-84D1-45F1-BB51-24B72D8A8A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7A30A3-71F7-4379-9178-5EF92EBC1FE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1665" windowWidth="20625" windowHeight="18870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1710" windowWidth="20625" windowHeight="18870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase1" sheetId="13" r:id="rId1"/>
@@ -427,9 +427,6 @@
     <t>Chech that "Support Center" link navigate to "Support Center" page from the "Contact us" page</t>
   </si>
   <si>
-    <t>Verify that "Thank you." message appears after submitting Contact Us form with valid credentials launched after clicking "Contact Us" link button on Products page</t>
-  </si>
-  <si>
     <t>Test the "Contact Us" form with positive scenario</t>
   </si>
   <si>
@@ -437,6 +434,9 @@
   </si>
   <si>
     <t>Verify that after clicking on the "Support Center" button from the Contact Us page the "Support Center" text appears.</t>
+  </si>
+  <si>
+    <t>Verify that "Thank you." message appears after submitting Contact Us form with valid credentials, the "Contact Us" form is triggered after clicking the "Contact Us" button on the "Products" page.</t>
   </si>
 </sst>
 </file>
@@ -858,6 +858,99 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -880,23 +973,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -912,86 +993,20 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1005,56 +1020,41 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1294,48 +1294,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="60"/>
+      <c r="F2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="30" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -1351,10 +1351,10 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -1379,25 +1379,25 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="30" t="s">
+      <c r="E6" s="60"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
@@ -1416,96 +1416,96 @@
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="7"/>
       <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="36"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="7"/>
       <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="7"/>
       <c r="F11" s="16">
         <v>3</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="7"/>
       <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -1524,326 +1524,266 @@
       <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="45" t="s">
+      <c r="C15" s="40"/>
+      <c r="D15" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="45" t="s">
+      <c r="E15" s="40"/>
+      <c r="F15" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="45" t="s">
+      <c r="G15" s="43"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="46"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="40"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="48"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="53" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="54"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="53" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="54"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="53" t="s">
+      <c r="C19" s="32"/>
+      <c r="D19" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="54"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="53" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="54"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="62"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
     </row>
     <row r="22" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>6</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="62"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30"/>
     </row>
     <row r="23" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>7</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
     </row>
     <row r="24" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>8</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58" t="s">
+      <c r="C24" s="27"/>
+      <c r="D24" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="62"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
     </row>
     <row r="25" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>9</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58" t="s">
+      <c r="C25" s="27"/>
+      <c r="D25" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="62"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
     </row>
     <row r="26" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>10</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58" t="s">
+      <c r="C26" s="27"/>
+      <c r="D26" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="65"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="25"/>
     </row>
     <row r="27" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>11</v>
       </c>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="58" t="s">
+      <c r="C27" s="22"/>
+      <c r="D27" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="65"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1858,6 +1798,66 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1" xr:uid="{9F53A52D-B4F4-4F0B-846B-8AD0DEF9F13A}"/>
@@ -1884,48 +1884,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="50"/>
+      <c r="F2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="30" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -1941,10 +1941,10 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -1969,27 +1969,27 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="37" t="s">
+      <c r="E6" s="60"/>
+      <c r="F6" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="30" t="s">
+      <c r="G6" s="65"/>
+      <c r="H6" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
@@ -2008,94 +2008,94 @@
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="7"/>
       <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="36"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="7"/>
       <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="7"/>
       <c r="F11" s="16">
         <v>3</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="7"/>
       <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -2114,209 +2114,255 @@
       <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
     </row>
     <row r="15" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="83" t="s">
+      <c r="C15" s="40"/>
+      <c r="D15" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="81" t="s">
+      <c r="E15" s="80"/>
+      <c r="F15" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="81" t="s">
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
     </row>
     <row r="16" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="82"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
     </row>
     <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="54"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="87" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="87"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="54"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="53" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="54"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="53" t="s">
+      <c r="C19" s="32"/>
+      <c r="D19" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="54"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="54"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="87" t="s">
         <v>93</v>
       </c>
       <c r="E20" s="87"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="54"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>5</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="53" t="s">
+      <c r="C21" s="32"/>
+      <c r="D21" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="54"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="73" t="s">
+      <c r="C22" s="70"/>
+      <c r="D22" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="74"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="72"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="68"/>
     </row>
     <row r="23" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>7</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="73" t="s">
+      <c r="C23" s="70"/>
+      <c r="D23" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="74"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="72"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="68"/>
     </row>
     <row r="24" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>8</v>
       </c>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="73" t="s">
+      <c r="C24" s="70"/>
+      <c r="D24" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="74"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="72"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
     <mergeCell ref="B14:K14"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
@@ -2333,28 +2379,593 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:H18"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{E849C4F2-3DF2-4ECE-BAAD-8FDA54A74891}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFBE157B-C82B-4C2C-AE31-8C7061D578F2}">
+  <dimension ref="A1:M29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="11" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="54"/>
+      <c r="F1" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58"/>
+    </row>
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="50"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
+    </row>
+    <row r="3" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="60"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="60"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="60"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+    </row>
+    <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+    </row>
+    <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>1</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="36"/>
+    </row>
+    <row r="10" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>2</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="16">
+        <v>2</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
+    </row>
+    <row r="11" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>3</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="16">
+        <v>3</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
+    </row>
+    <row r="12" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
+        <v>4</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="16">
+        <v>4</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
+    </row>
+    <row r="13" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="72"/>
+      <c r="F15" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="43"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="43"/>
+      <c r="K15" s="40"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="38"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="42"/>
+    </row>
+    <row r="17" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="32"/>
+    </row>
+    <row r="18" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="70"/>
+      <c r="D18" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="70"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="68"/>
+      <c r="M18" s="18"/>
+    </row>
+    <row r="19" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="70"/>
+      <c r="D19" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="70"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="68"/>
+    </row>
+    <row r="20" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="32"/>
+    </row>
+    <row r="21" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="32"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="32"/>
+    </row>
+    <row r="22" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>4</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="32"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="32"/>
+    </row>
+    <row r="23" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>5</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
+    </row>
+    <row r="24" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>6</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>7</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
+    </row>
+    <row r="26" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>8</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30"/>
+    </row>
+    <row r="27" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>9</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+    </row>
+    <row r="28" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>10</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="25"/>
+    </row>
+    <row r="29" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>11</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="82">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="I24:K24"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:K1"/>
@@ -2368,572 +2979,27 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1" xr:uid="{E849C4F2-3DF2-4ECE-BAAD-8FDA54A74891}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFBE157B-C82B-4C2C-AE31-8C7061D578F2}">
-  <dimension ref="A1:M29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:K1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="11" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27"/>
-    </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
-    </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-    </row>
-    <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-    </row>
-    <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
-        <v>1</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="16">
-        <v>1</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
-    </row>
-    <row r="10" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
-        <v>2</v>
-      </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="16">
-        <v>2</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
-    </row>
-    <row r="11" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
-        <v>3</v>
-      </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="16">
-        <v>3</v>
-      </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="33"/>
-    </row>
-    <row r="12" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16">
-        <v>4</v>
-      </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="16">
-        <v>4</v>
-      </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
-    </row>
-    <row r="13" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-    </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="46"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="48"/>
-    </row>
-    <row r="17" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="54"/>
-    </row>
-    <row r="18" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>2</v>
-      </c>
-      <c r="B18" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="74"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="72"/>
-      <c r="M18" s="18"/>
-    </row>
-    <row r="19" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>3</v>
-      </c>
-      <c r="B19" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="72"/>
-    </row>
-    <row r="20" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>2</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="54"/>
-    </row>
-    <row r="21" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>3</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="54"/>
-    </row>
-    <row r="22" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>4</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="54"/>
-    </row>
-    <row r="23" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>5</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
-    </row>
-    <row r="24" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>6</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="62"/>
-    </row>
-    <row r="25" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>7</v>
-      </c>
-      <c r="B25" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="62"/>
-    </row>
-    <row r="26" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>8</v>
-      </c>
-      <c r="B26" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="62"/>
-    </row>
-    <row r="27" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>9</v>
-      </c>
-      <c r="B27" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="62"/>
-    </row>
-    <row r="28" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>10</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="65"/>
-    </row>
-    <row r="29" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>11</v>
-      </c>
-      <c r="B29" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="65"/>
-    </row>
-  </sheetData>
-  <mergeCells count="82">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:H24"/>
@@ -2950,72 +3016,6 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="I26:K26"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1" xr:uid="{FB7E80F4-FB51-4A2E-8854-7D191BF05C11}"/>
@@ -3044,48 +3044,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="50"/>
+      <c r="F2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="30" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -3101,10 +3101,10 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -3129,25 +3129,25 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="30" t="s">
+      <c r="E6" s="60"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
@@ -3166,92 +3166,92 @@
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="7"/>
       <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="36"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="7"/>
       <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="7"/>
       <c r="F11" s="16">
         <v>3</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="7"/>
       <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -3284,128 +3284,100 @@
       <c r="K14" s="76"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="66" t="s">
+      <c r="C15" s="40"/>
+      <c r="D15" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="45" t="s">
+      <c r="E15" s="72"/>
+      <c r="F15" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="45" t="s">
+      <c r="G15" s="43"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="46"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="40"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="48"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="53" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="54"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="53" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="54"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="58" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="54"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -3420,6 +3392,34 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3444,48 +3444,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="50"/>
+      <c r="F2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="30" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -3501,10 +3501,10 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -3529,25 +3529,25 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="30" t="s">
+      <c r="E6" s="60"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
@@ -3566,92 +3566,92 @@
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="7"/>
       <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="36"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="7"/>
       <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="7"/>
       <c r="F11" s="16">
         <v>3</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="7"/>
       <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -3671,7 +3671,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="76"/>
       <c r="D14" s="76"/>
@@ -3684,151 +3684,119 @@
       <c r="K14" s="76"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="66" t="s">
+      <c r="C15" s="40"/>
+      <c r="D15" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="45" t="s">
+      <c r="E15" s="72"/>
+      <c r="F15" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="45" t="s">
+      <c r="G15" s="43"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="46"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="40"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="48"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="53" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="54"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="53" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="54"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="53" t="s">
+      <c r="C19" s="32"/>
+      <c r="D19" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="54"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="53" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="54"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -3843,6 +3811,38 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3867,48 +3867,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="50"/>
+      <c r="F2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="30" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -3924,10 +3924,10 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -3952,25 +3952,25 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="30" t="s">
+      <c r="E6" s="60"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
@@ -3989,92 +3989,92 @@
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="7"/>
       <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="36"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="7"/>
       <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="7"/>
       <c r="F11" s="16">
         <v>3</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="7"/>
       <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -4093,188 +4093,152 @@
       <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="66" t="s">
+      <c r="C15" s="40"/>
+      <c r="D15" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="45" t="s">
+      <c r="E15" s="72"/>
+      <c r="F15" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="45" t="s">
+      <c r="G15" s="43"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="46"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="40"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="48"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="53" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="54"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="53" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="54"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="53" t="s">
+      <c r="C19" s="32"/>
+      <c r="D19" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="54"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="53" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="54"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="72"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -4289,6 +4253,42 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4314,48 +4314,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="50"/>
+      <c r="F2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="30" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -4371,10 +4371,10 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -4399,25 +4399,25 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="30" t="s">
+      <c r="E6" s="60"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
@@ -4436,94 +4436,94 @@
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="7"/>
       <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="36"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="7"/>
       <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="7"/>
       <c r="F11" s="16">
         <v>3</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="7"/>
       <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -4542,197 +4542,183 @@
       <c r="A14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="66" t="s">
+      <c r="C15" s="40"/>
+      <c r="D15" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="45" t="s">
+      <c r="E15" s="72"/>
+      <c r="F15" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="45" t="s">
+      <c r="G15" s="43"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="46"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="40"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="48"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="53" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="54"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="53" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="54"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="53" t="s">
+      <c r="C19" s="32"/>
+      <c r="D19" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="54"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="73" t="s">
+      <c r="C20" s="70"/>
+      <c r="D20" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="74"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="72"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="68"/>
     </row>
     <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>5</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="73" t="s">
+      <c r="C21" s="70"/>
+      <c r="D21" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="74"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="72"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="68"/>
     </row>
     <row r="22" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="73" t="s">
+      <c r="C22" s="70"/>
+      <c r="D22" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="74"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="72"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:K1"/>
@@ -4749,18 +4735,32 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" xr:uid="{18158D75-4D1E-4789-A17F-CF49E1A8BA69}"/>
@@ -4788,48 +4788,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="50"/>
+      <c r="F2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="30" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -4845,10 +4845,10 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -4873,25 +4873,25 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="30" t="s">
+      <c r="E6" s="60"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
@@ -4910,94 +4910,94 @@
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="7"/>
       <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="36"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="7"/>
       <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="7"/>
       <c r="F11" s="16">
         <v>3</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="7"/>
       <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -5016,234 +5016,190 @@
       <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="66" t="s">
+      <c r="C15" s="40"/>
+      <c r="D15" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="45" t="s">
+      <c r="E15" s="72"/>
+      <c r="F15" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="45" t="s">
+      <c r="G15" s="43"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="46"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="40"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="48"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="53" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="54"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="53" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="54"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="53" t="s">
+      <c r="C19" s="32"/>
+      <c r="D19" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="54"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="53" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="54"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="62"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
     </row>
     <row r="22" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>6</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="60" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="62"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30"/>
     </row>
     <row r="23" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>7</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -5258,6 +5214,50 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" xr:uid="{116786F6-BC66-4BB2-A14C-F847BC0A783C}"/>
@@ -5283,48 +5283,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="50"/>
+      <c r="F2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="30" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -5340,10 +5340,10 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -5368,27 +5368,27 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="37" t="s">
+      <c r="E6" s="60"/>
+      <c r="F6" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="30" t="s">
+      <c r="G6" s="65"/>
+      <c r="H6" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
@@ -5407,94 +5407,94 @@
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="7"/>
       <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="36"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="7"/>
       <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="7"/>
       <c r="F11" s="16">
         <v>3</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="7"/>
       <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -5513,278 +5513,228 @@
       <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="83" t="s">
+      <c r="C15" s="40"/>
+      <c r="D15" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="81" t="s">
+      <c r="E15" s="80"/>
+      <c r="F15" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="81" t="s">
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="82"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
     </row>
     <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="53" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="54"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="53" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="54"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="53" t="s">
+      <c r="C19" s="32"/>
+      <c r="D19" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="54"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="53" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="54"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="62"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
     </row>
     <row r="22" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>6</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="78" t="s">
+      <c r="C22" s="84"/>
+      <c r="D22" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="78"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="62"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30"/>
     </row>
     <row r="23" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>7</v>
       </c>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="78" t="s">
+      <c r="C23" s="86"/>
+      <c r="D23" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="78"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
     </row>
     <row r="24" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>8</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="60" t="s">
+      <c r="C24" s="27"/>
+      <c r="D24" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="62"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="62"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
     </row>
     <row r="25" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>9</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="58" t="s">
+      <c r="C25" s="22"/>
+      <c r="D25" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="62"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="I25:K25"/>
@@ -5801,6 +5751,56 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B14:K14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" xr:uid="{A5E1B17E-05F6-4590-B3EC-FFA57304C738}"/>
@@ -5825,48 +5825,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="50"/>
+      <c r="F2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="30" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -5882,10 +5882,10 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -5910,27 +5910,27 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="37" t="s">
+      <c r="E6" s="60"/>
+      <c r="F6" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="30" t="s">
+      <c r="G6" s="65"/>
+      <c r="H6" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
@@ -5949,92 +5949,92 @@
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="7"/>
       <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="36"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="7"/>
       <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="7"/>
       <c r="F11" s="16">
         <v>3</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="7"/>
       <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -6053,209 +6053,255 @@
       <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="83" t="s">
+      <c r="C15" s="40"/>
+      <c r="D15" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="81" t="s">
+      <c r="E15" s="80"/>
+      <c r="F15" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="81" t="s">
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="82"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
     </row>
     <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="54"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="87" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="87"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="54"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="73" t="s">
+      <c r="C18" s="70"/>
+      <c r="D18" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="74"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="72"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="68"/>
     </row>
     <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="73" t="s">
+      <c r="C19" s="70"/>
+      <c r="D19" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="72"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="68"/>
     </row>
     <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="54"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="87" t="s">
         <v>70</v>
       </c>
       <c r="E20" s="87"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="54"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="60" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="62"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
     </row>
     <row r="22" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>6</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="60" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="62"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30"/>
     </row>
     <row r="23" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>7</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="60" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
     </row>
     <row r="24" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>8</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="60" t="s">
+      <c r="C24" s="27"/>
+      <c r="D24" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="62"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="62"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:H24"/>
@@ -6272,52 +6318,6 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="I23:K23"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Test cases for Telnyx.xlsx
+++ b/docs/Test cases for Telnyx.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkmts\OneDrive\Рабочий стол\cypress telnyx\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7A30A3-71F7-4379-9178-5EF92EBC1FE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478355EE-9329-490E-B5DF-D482D97FC4BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1710" windowWidth="20625" windowHeight="18870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase1" sheetId="13" r:id="rId1"/>
     <sheet name="TestCase2" sheetId="14" r:id="rId2"/>
     <sheet name="TestCase3" sheetId="15" r:id="rId3"/>
     <sheet name="TestCase4" sheetId="16" r:id="rId4"/>
-    <sheet name="TestCase5" sheetId="17" r:id="rId5"/>
-    <sheet name="TestCase6" sheetId="2" r:id="rId6"/>
+    <sheet name="TestCase6" sheetId="2" r:id="rId5"/>
+    <sheet name="TestCase5" sheetId="17" r:id="rId6"/>
     <sheet name="TestCase7" sheetId="20" r:id="rId7"/>
     <sheet name="TestCase8" sheetId="18" r:id="rId8"/>
     <sheet name="TestCase9" sheetId="12" r:id="rId9"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="137">
   <si>
     <t>Step #</t>
   </si>
@@ -328,24 +328,15 @@
     <t>"Support Center" link button should be visible</t>
   </si>
   <si>
-    <t>Сheck that entered value in 'Enter business email' field on the Main Page appearst in "Enter business email" field on Sign Up page</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify the match of the data in the "Enter business email" field on the Sign Up page with the previously entered data on the Main page </t>
   </si>
   <si>
-    <t>Verifythat error message appears after clicking "Submit" button with empty fields</t>
-  </si>
-  <si>
     <t>Verify that "Thank you." message appears after submitting Contact Us form with valid credentials</t>
   </si>
   <si>
     <t>Set valid value in "Promo Code" field</t>
   </si>
   <si>
-    <t>Verify that "The last one step" message appearst after clicking "Submit" button with filled "Promo Code" field on Sign Up page</t>
-  </si>
-  <si>
     <t>www.testvalue.com</t>
   </si>
   <si>
@@ -406,9 +397,6 @@
     <t>Check that "Confirm email" page is loading after clicking "Submit" button on Sign Up page with filling the correct data ​​in the required fields</t>
   </si>
   <si>
-    <t>Verify that "The last one step" message appearst and "Confirm email" page is loading after clicking "Submit" button on Sign Up page</t>
-  </si>
-  <si>
     <t>Check that "Confirm email" page is loading after clicking "Submit" button on Sign Up page with filling in the correct data ​​in the required fields and "Promo Code" field</t>
   </si>
   <si>
@@ -427,16 +415,31 @@
     <t>Chech that "Support Center" link navigate to "Support Center" page from the "Contact us" page</t>
   </si>
   <si>
-    <t>Test the "Contact Us" form with positive scenario</t>
-  </si>
-  <si>
-    <t>Test the "Contact Us" formwith negative scenario when all fields are left empty</t>
-  </si>
-  <si>
     <t>Verify that after clicking on the "Support Center" button from the Contact Us page the "Support Center" text appears.</t>
   </si>
   <si>
     <t>Verify that "Thank you." message appears after submitting Contact Us form with valid credentials, the "Contact Us" form is triggered after clicking the "Contact Us" button on the "Products" page.</t>
+  </si>
+  <si>
+    <t>Verify that "The last one step" message appears and "Confirm email" page is loading after clicking "Submit" button on Sign Up page</t>
+  </si>
+  <si>
+    <t>Verify that "The last one step" message appears after clicking "Submit" button with filled "Promo Code" field on Sign Up page</t>
+  </si>
+  <si>
+    <t>Сheck that entered value in "Enter business email" field on the Main Page appearst in "Enter business email" field on Sign Up page</t>
+  </si>
+  <si>
+    <t>Test the "Contact Us" form with negative scenario when all fields are left empty</t>
+  </si>
+  <si>
+    <t>Verify that error message appears after clicking "Submit" button with empty fields</t>
+  </si>
+  <si>
+    <t>Test the "Contact Us" form with positive scenario, form opened via link from the Products page</t>
+  </si>
+  <si>
+    <t>Test the "Contact Us" form with positive scenario, form opened via header link from the main page</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1309,7 @@
       </c>
       <c r="E1" s="56"/>
       <c r="F1" s="57" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G1" s="57"/>
       <c r="H1" s="57"/>
@@ -1447,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="51" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
@@ -1466,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="51" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
@@ -1525,7 +1528,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -1673,11 +1676,11 @@
         <v>6</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="28"/>
@@ -1730,11 +1733,11 @@
         <v>9</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="28"/>
@@ -1772,7 +1775,7 @@
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="23"/>
@@ -1896,7 +1899,7 @@
       </c>
       <c r="E1" s="54"/>
       <c r="F1" s="57" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G1" s="57"/>
       <c r="H1" s="57"/>
@@ -2039,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="51" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
@@ -2115,7 +2118,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -2244,11 +2247,11 @@
         <v>5</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="31" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="31"/>
@@ -2305,7 +2308,7 @@
       </c>
       <c r="C24" s="70"/>
       <c r="D24" s="69" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E24" s="70"/>
       <c r="F24" s="66"/>
@@ -2391,8 +2394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFBE157B-C82B-4C2C-AE31-8C7061D578F2}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2417,7 +2420,7 @@
       </c>
       <c r="E1" s="54"/>
       <c r="F1" s="57" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G1" s="57"/>
       <c r="H1" s="57"/>
@@ -2577,7 +2580,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="51" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
@@ -2636,7 +2639,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -2880,11 +2883,11 @@
         <v>9</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="28"/>
@@ -2922,7 +2925,7 @@
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="23"/>
@@ -3029,8 +3032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC36F9BA-780D-4F5D-9872-4B31922D2390}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3271,7 +3274,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="C14" s="76"/>
       <c r="D14" s="76"/>
@@ -3366,7 +3369,7 @@
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="31"/>
@@ -3456,7 +3459,7 @@
       </c>
       <c r="E1" s="54"/>
       <c r="F1" s="57" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G1" s="57"/>
       <c r="H1" s="57"/>
@@ -3671,7 +3674,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C14" s="76"/>
       <c r="D14" s="76"/>
@@ -3785,7 +3788,7 @@
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="31"/>
@@ -3850,453 +3853,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863D1623-AE8B-44A5-9703-0C4EE436ABB3}">
-  <dimension ref="A1:K21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:K1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="11" width="11.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="58"/>
-    </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
-    </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-    </row>
-    <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-    </row>
-    <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
-        <v>1</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="16">
-        <v>1</v>
-      </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="36"/>
-    </row>
-    <row r="10" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
-        <v>2</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="16">
-        <v>2</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
-    </row>
-    <row r="11" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
-        <v>3</v>
-      </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="16">
-        <v>3</v>
-      </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
-    </row>
-    <row r="12" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16">
-        <v>4</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="16">
-        <v>4</v>
-      </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
-    </row>
-    <row r="13" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-    </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="43"/>
-      <c r="K15" s="40"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="42"/>
-    </row>
-    <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="32"/>
-    </row>
-    <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>2</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="32"/>
-    </row>
-    <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>3</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="32"/>
-    </row>
-    <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>4</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="32"/>
-    </row>
-    <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>5</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="68"/>
-    </row>
-  </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F21:H21"/>
-  </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9978B3B7-D545-40FB-BB73-0D1FD42CDF19}">
   <dimension ref="A1:K22"/>
   <sheetViews>
@@ -4326,7 +3882,7 @@
       </c>
       <c r="E1" s="54"/>
       <c r="F1" s="57" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G1" s="57"/>
       <c r="H1" s="57"/>
@@ -4467,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="51" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
@@ -4543,7 +4099,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -4634,11 +4190,11 @@
         <v>3</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="31"/>
@@ -4695,7 +4251,7 @@
       </c>
       <c r="C22" s="70"/>
       <c r="D22" s="69" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E22" s="70"/>
       <c r="F22" s="66"/>
@@ -4770,12 +4326,459 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863D1623-AE8B-44A5-9703-0C4EE436ABB3}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="11" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="54"/>
+      <c r="F1" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58"/>
+    </row>
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="50"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
+    </row>
+    <row r="3" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="60"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="60"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="60"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+    </row>
+    <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+    </row>
+    <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>1</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="36"/>
+    </row>
+    <row r="10" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>2</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="16">
+        <v>2</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
+    </row>
+    <row r="11" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>3</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="16">
+        <v>3</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
+    </row>
+    <row r="12" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
+        <v>4</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="16">
+        <v>4</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
+    </row>
+    <row r="13" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="72"/>
+      <c r="F15" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="43"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="43"/>
+      <c r="K15" s="40"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="38"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="42"/>
+    </row>
+    <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="32"/>
+    </row>
+    <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="32"/>
+    </row>
+    <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="32"/>
+    </row>
+    <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="32"/>
+    </row>
+    <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>5</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F21:H21"/>
+  </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EC757B-C5FE-452E-98FE-BAF7476191A5}">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:K1"/>
+      <selection activeCell="B14" sqref="B14:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4800,7 +4803,7 @@
       </c>
       <c r="E1" s="54"/>
       <c r="F1" s="57" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G1" s="57"/>
       <c r="H1" s="57"/>
@@ -4941,7 +4944,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="51" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
@@ -5017,7 +5020,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -5108,11 +5111,11 @@
         <v>3</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="31"/>
@@ -5272,7 +5275,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:K1"/>
+      <selection activeCell="B14" sqref="B14:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5295,7 +5298,7 @@
       </c>
       <c r="E1" s="54"/>
       <c r="F1" s="57" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G1" s="57"/>
       <c r="H1" s="57"/>
@@ -5438,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="51" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
@@ -5514,7 +5517,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -5681,7 +5684,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="85" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C23" s="86"/>
       <c r="D23" s="83" t="s">
@@ -5837,7 +5840,7 @@
       </c>
       <c r="E1" s="54"/>
       <c r="F1" s="57" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G1" s="57"/>
       <c r="H1" s="57"/>
@@ -6054,7 +6057,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -6107,7 +6110,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="87" t="s">

--- a/docs/Test cases for Telnyx.xlsx
+++ b/docs/Test cases for Telnyx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkmts\OneDrive\Рабочий стол\cypress telnyx\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478355EE-9329-490E-B5DF-D482D97FC4BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7980E1D-7C4D-4B51-9CA0-F92840AEE908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5670" yWindow="2295" windowWidth="20625" windowHeight="18870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase1" sheetId="13" r:id="rId1"/>
@@ -861,6 +861,117 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -868,6 +979,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -876,125 +996,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1011,24 +1023,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1046,18 +1058,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1297,48 +1297,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="58"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="59" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -1354,10 +1354,10 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="60"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -1382,25 +1382,25 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="60"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="59" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
@@ -1419,96 +1419,96 @@
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="7"/>
       <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="36"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="7"/>
       <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="7"/>
       <c r="F11" s="16">
         <v>3</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="7"/>
       <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -1527,266 +1527,326 @@
       <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="39" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="39" t="s">
+      <c r="E15" s="46"/>
+      <c r="F15" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="39" t="s">
+      <c r="G15" s="49"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="43"/>
-      <c r="K15" s="40"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="42"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="48"/>
     </row>
     <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="31" t="s">
+      <c r="C17" s="54"/>
+      <c r="D17" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="32"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="54"/>
     </row>
     <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="31" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="32"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="54"/>
     </row>
     <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="31" t="s">
+      <c r="C19" s="54"/>
+      <c r="D19" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="32"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="54"/>
     </row>
     <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="31" t="s">
+      <c r="C20" s="54"/>
+      <c r="D20" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="32"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="54"/>
     </row>
     <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="21" t="s">
+      <c r="C21" s="57"/>
+      <c r="D21" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="30"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="62"/>
     </row>
     <row r="22" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>6</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="21" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="30"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="62"/>
     </row>
     <row r="23" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>7</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="21" t="s">
+      <c r="C23" s="57"/>
+      <c r="D23" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
     </row>
     <row r="24" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>8</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="21" t="s">
+      <c r="C24" s="57"/>
+      <c r="D24" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="30"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="62"/>
     </row>
     <row r="25" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>9</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="21" t="s">
+      <c r="C25" s="57"/>
+      <c r="D25" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="30"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
     </row>
     <row r="26" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>10</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="21" t="s">
+      <c r="C26" s="57"/>
+      <c r="D26" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="25"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="65"/>
     </row>
     <row r="27" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>11</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="21" t="s">
+      <c r="C27" s="59"/>
+      <c r="D27" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="25"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1801,66 +1861,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1" xr:uid="{9F53A52D-B4F4-4F0B-846B-8AD0DEF9F13A}"/>
@@ -1887,48 +1887,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="57" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="58"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="59" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -1944,10 +1944,10 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="60"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -1972,27 +1972,27 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="60"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="64" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="59" t="s">
+      <c r="G6" s="38"/>
+      <c r="H6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
@@ -2011,94 +2011,94 @@
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="7"/>
       <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="36"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="7"/>
       <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="7"/>
       <c r="F11" s="16">
         <v>3</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="7"/>
       <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -2117,221 +2117,243 @@
       <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="79" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="80"/>
-      <c r="F15" s="77" t="s">
+      <c r="E15" s="84"/>
+      <c r="F15" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="77" t="s">
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="78"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
     </row>
     <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="32"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="87" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="87"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="32"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="54"/>
     </row>
     <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="31" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="32"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="54"/>
     </row>
     <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="31" t="s">
+      <c r="C19" s="54"/>
+      <c r="D19" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="32"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="54"/>
     </row>
     <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="32"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="87" t="s">
         <v>93</v>
       </c>
       <c r="E20" s="87"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="32"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="54"/>
     </row>
     <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>5</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="31" t="s">
+      <c r="C21" s="54"/>
+      <c r="D21" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="32"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="54"/>
     </row>
     <row r="22" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="69" t="s">
+      <c r="C22" s="74"/>
+      <c r="D22" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="70"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="68"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="72"/>
     </row>
     <row r="23" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>7</v>
       </c>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="69" t="s">
+      <c r="C23" s="74"/>
+      <c r="D23" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="70"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="68"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="72"/>
     </row>
     <row r="24" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>8</v>
       </c>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="69" t="s">
+      <c r="C24" s="74"/>
+      <c r="D24" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="70"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="68"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:H17"/>
@@ -2348,40 +2370,18 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" xr:uid="{E849C4F2-3DF2-4ECE-BAAD-8FDA54A74891}"/>
@@ -2394,7 +2394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFBE157B-C82B-4C2C-AE31-8C7061D578F2}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:K1"/>
     </sheetView>
   </sheetViews>
@@ -2408,48 +2408,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="57" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="58"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="59" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -2465,10 +2465,10 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="60"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -2493,25 +2493,25 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="60"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="59" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
@@ -2530,96 +2530,96 @@
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="7"/>
       <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="36"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="7"/>
       <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="7"/>
       <c r="F11" s="16">
         <v>3</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="7"/>
       <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -2638,305 +2638,371 @@
       <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="71" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="39" t="s">
+      <c r="E15" s="67"/>
+      <c r="F15" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="39" t="s">
+      <c r="G15" s="49"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="43"/>
-      <c r="K15" s="40"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="42"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="48"/>
     </row>
     <row r="17" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="31" t="s">
+      <c r="C17" s="54"/>
+      <c r="D17" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="32"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="54"/>
     </row>
     <row r="18" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="69" t="s">
+      <c r="C18" s="74"/>
+      <c r="D18" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="68"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="72"/>
       <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="69" t="s">
+      <c r="C19" s="74"/>
+      <c r="D19" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="68"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="72"/>
     </row>
     <row r="20" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="31" t="s">
+      <c r="C20" s="54"/>
+      <c r="D20" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="32"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="54"/>
     </row>
     <row r="21" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>3</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="31" t="s">
+      <c r="C21" s="54"/>
+      <c r="D21" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="32"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="54"/>
     </row>
     <row r="22" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>4</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="31" t="s">
+      <c r="C22" s="54"/>
+      <c r="D22" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="32"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="54"/>
     </row>
     <row r="23" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>5</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="21" t="s">
+      <c r="C23" s="57"/>
+      <c r="D23" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
     </row>
     <row r="24" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>6</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="21" t="s">
+      <c r="C24" s="57"/>
+      <c r="D24" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="30"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="62"/>
     </row>
     <row r="25" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>7</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="21" t="s">
+      <c r="C25" s="57"/>
+      <c r="D25" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="30"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
     </row>
     <row r="26" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>8</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="21" t="s">
+      <c r="C26" s="57"/>
+      <c r="D26" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="30"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="62"/>
     </row>
     <row r="27" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>9</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="21" t="s">
+      <c r="C27" s="57"/>
+      <c r="D27" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="30"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
     </row>
     <row r="28" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>10</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="21" t="s">
+      <c r="C28" s="57"/>
+      <c r="D28" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="25"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="65"/>
     </row>
     <row r="29" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>11</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="21" t="s">
+      <c r="C29" s="59"/>
+      <c r="D29" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="25"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="F28:H28"/>
@@ -2953,72 +3019,6 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1" xr:uid="{FB7E80F4-FB51-4A2E-8854-7D191BF05C11}"/>
@@ -3032,7 +3032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC36F9BA-780D-4F5D-9872-4B31922D2390}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14:K14"/>
     </sheetView>
   </sheetViews>
@@ -3047,48 +3047,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="57" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="58"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="59" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -3104,10 +3104,10 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="60"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -3132,25 +3132,25 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="60"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="59" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
@@ -3169,92 +3169,92 @@
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="7"/>
       <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="36"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="7"/>
       <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="7"/>
       <c r="F11" s="16">
         <v>3</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="7"/>
       <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -3287,100 +3287,128 @@
       <c r="K14" s="76"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="71" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="39" t="s">
+      <c r="E15" s="67"/>
+      <c r="F15" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="39" t="s">
+      <c r="G15" s="49"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="43"/>
-      <c r="K15" s="40"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="42"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="48"/>
     </row>
     <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="31" t="s">
+      <c r="C17" s="54"/>
+      <c r="D17" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="32"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="54"/>
     </row>
     <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="31" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="32"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="54"/>
     </row>
     <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="21" t="s">
+      <c r="C19" s="59"/>
+      <c r="D19" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="32"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -3395,34 +3423,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3447,48 +3447,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="57" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="58"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="59" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -3504,10 +3504,10 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="60"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -3532,25 +3532,25 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="60"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="59" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
@@ -3569,92 +3569,92 @@
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="7"/>
       <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="36"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="7"/>
       <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="7"/>
       <c r="F11" s="16">
         <v>3</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="7"/>
       <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -3687,119 +3687,151 @@
       <c r="K14" s="76"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="71" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="39" t="s">
+      <c r="E15" s="67"/>
+      <c r="F15" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="39" t="s">
+      <c r="G15" s="49"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="43"/>
-      <c r="K15" s="40"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="42"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="48"/>
     </row>
     <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="31" t="s">
+      <c r="C17" s="54"/>
+      <c r="D17" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="32"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="54"/>
     </row>
     <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="31" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="32"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="54"/>
     </row>
     <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="31" t="s">
+      <c r="C19" s="54"/>
+      <c r="D19" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="32"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="54"/>
     </row>
     <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="31" t="s">
+      <c r="C20" s="54"/>
+      <c r="D20" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="32"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -3814,38 +3846,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3870,48 +3870,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="57" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="58"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="59" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -3927,10 +3927,10 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="60"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -3955,25 +3955,25 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="60"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="59" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
@@ -3992,94 +3992,94 @@
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="7"/>
       <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="36"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="7"/>
       <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="7"/>
       <c r="F11" s="16">
         <v>3</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="7"/>
       <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -4098,183 +4098,197 @@
       <c r="A14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="71" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="39" t="s">
+      <c r="E15" s="67"/>
+      <c r="F15" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="39" t="s">
+      <c r="G15" s="49"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="43"/>
-      <c r="K15" s="40"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="42"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="48"/>
     </row>
     <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="31" t="s">
+      <c r="C17" s="54"/>
+      <c r="D17" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="32"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="54"/>
     </row>
     <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="31" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="32"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="54"/>
     </row>
     <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="31" t="s">
+      <c r="C19" s="54"/>
+      <c r="D19" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="32"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="54"/>
     </row>
     <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="69" t="s">
+      <c r="C20" s="74"/>
+      <c r="D20" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="70"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="68"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="72"/>
     </row>
     <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>5</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="69" t="s">
+      <c r="C21" s="74"/>
+      <c r="D21" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="70"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="68"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="72"/>
     </row>
     <row r="22" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="69" t="s">
+      <c r="C22" s="74"/>
+      <c r="D22" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="70"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="68"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:K1"/>
@@ -4291,32 +4305,18 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" xr:uid="{18158D75-4D1E-4789-A17F-CF49E1A8BA69}"/>
@@ -4344,48 +4344,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="57" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="58"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="59" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -4401,10 +4401,10 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="60"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -4429,25 +4429,25 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="60"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="59" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
@@ -4466,92 +4466,92 @@
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="7"/>
       <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="36"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="7"/>
       <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="7"/>
       <c r="F11" s="16">
         <v>3</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="7"/>
       <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -4570,152 +4570,188 @@
       <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="71" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="39" t="s">
+      <c r="E15" s="67"/>
+      <c r="F15" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="39" t="s">
+      <c r="G15" s="49"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="43"/>
-      <c r="K15" s="40"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="42"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="48"/>
     </row>
     <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="31" t="s">
+      <c r="C17" s="54"/>
+      <c r="D17" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="32"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="54"/>
     </row>
     <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="31" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="32"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="54"/>
     </row>
     <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="31" t="s">
+      <c r="C19" s="54"/>
+      <c r="D19" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="32"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="54"/>
     </row>
     <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="31" t="s">
+      <c r="C20" s="54"/>
+      <c r="D20" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="32"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="54"/>
     </row>
     <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="21" t="s">
+      <c r="C21" s="57"/>
+      <c r="D21" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="68"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -4730,42 +4766,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4791,48 +4791,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="57" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="58"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="59" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -4848,10 +4848,10 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="60"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -4876,25 +4876,25 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="60"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="59" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
@@ -4913,94 +4913,94 @@
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="7"/>
       <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="36"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="7"/>
       <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="7"/>
       <c r="F11" s="16">
         <v>3</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="7"/>
       <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -5019,190 +5019,234 @@
       <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="71" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="39" t="s">
+      <c r="E15" s="67"/>
+      <c r="F15" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="39" t="s">
+      <c r="G15" s="49"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="43"/>
-      <c r="K15" s="40"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="42"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="48"/>
     </row>
     <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="31" t="s">
+      <c r="C17" s="54"/>
+      <c r="D17" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="32"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="54"/>
     </row>
     <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="31" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="32"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="54"/>
     </row>
     <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="31" t="s">
+      <c r="C19" s="54"/>
+      <c r="D19" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="32"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="54"/>
     </row>
     <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="31" t="s">
+      <c r="C20" s="54"/>
+      <c r="D20" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="32"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="54"/>
     </row>
     <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="21" t="s">
+      <c r="C21" s="57"/>
+      <c r="D21" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="30"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="62"/>
     </row>
     <row r="22" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>6</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="30"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="62"/>
     </row>
     <row r="23" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>7</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="21" t="s">
+      <c r="C23" s="57"/>
+      <c r="D23" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -5217,50 +5261,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" xr:uid="{116786F6-BC66-4BB2-A14C-F847BC0A783C}"/>
@@ -5286,48 +5286,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="57" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="58"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="59" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -5343,10 +5343,10 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="60"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -5371,27 +5371,27 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="60"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="64" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="59" t="s">
+      <c r="G6" s="38"/>
+      <c r="H6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
@@ -5410,94 +5410,94 @@
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="7"/>
       <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="36"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="7"/>
       <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="7"/>
       <c r="F11" s="16">
         <v>3</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="7"/>
       <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -5516,228 +5516,278 @@
       <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="79" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="80"/>
-      <c r="F15" s="77" t="s">
+      <c r="E15" s="84"/>
+      <c r="F15" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="77" t="s">
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="78"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
     </row>
     <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="31" t="s">
+      <c r="C17" s="54"/>
+      <c r="D17" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="32"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="54"/>
     </row>
     <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="31" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="32"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="54"/>
     </row>
     <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="31" t="s">
+      <c r="C19" s="54"/>
+      <c r="D19" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="32"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="54"/>
     </row>
     <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="31" t="s">
+      <c r="C20" s="54"/>
+      <c r="D20" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="32"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="54"/>
     </row>
     <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="21" t="s">
+      <c r="C21" s="57"/>
+      <c r="D21" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="30"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="62"/>
     </row>
     <row r="22" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>6</v>
       </c>
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="83" t="s">
+      <c r="C22" s="77"/>
+      <c r="D22" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="83"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="30"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="62"/>
     </row>
     <row r="23" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>7</v>
       </c>
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="83" t="s">
+      <c r="C23" s="80"/>
+      <c r="D23" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="83"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
     </row>
     <row r="24" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>8</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28" t="s">
+      <c r="C24" s="57"/>
+      <c r="D24" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="30"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="62"/>
     </row>
     <row r="25" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>9</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="21" t="s">
+      <c r="C25" s="59"/>
+      <c r="D25" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="30"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="I25:K25"/>
@@ -5754,56 +5804,6 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B14:K14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" xr:uid="{A5E1B17E-05F6-4590-B3EC-FFA57304C738}"/>
@@ -5828,48 +5828,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="57" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="58"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="59" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -5885,10 +5885,10 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="60"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -5913,27 +5913,27 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="60"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="64" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="59" t="s">
+      <c r="G6" s="38"/>
+      <c r="H6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
@@ -5952,92 +5952,92 @@
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="7"/>
       <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="36"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="7"/>
       <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="7"/>
       <c r="F11" s="16">
         <v>3</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="7"/>
       <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -6056,209 +6056,255 @@
       <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="79" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="80"/>
-      <c r="F15" s="77" t="s">
+      <c r="E15" s="84"/>
+      <c r="F15" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="77" t="s">
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="78"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
     </row>
     <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="32"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="87" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="87"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="32"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="54"/>
     </row>
     <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="69" t="s">
+      <c r="C18" s="74"/>
+      <c r="D18" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="68"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="72"/>
     </row>
     <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="69" t="s">
+      <c r="C19" s="74"/>
+      <c r="D19" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="68"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="72"/>
     </row>
     <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="32"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="87" t="s">
         <v>70</v>
       </c>
       <c r="E20" s="87"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="32"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="54"/>
     </row>
     <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28" t="s">
+      <c r="C21" s="57"/>
+      <c r="D21" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="30"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="62"/>
     </row>
     <row r="22" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>6</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="30"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="62"/>
     </row>
     <row r="23" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>7</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28" t="s">
+      <c r="C23" s="57"/>
+      <c r="D23" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
     </row>
     <row r="24" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>8</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28" t="s">
+      <c r="C24" s="57"/>
+      <c r="D24" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="30"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:H22"/>
@@ -6275,52 +6321,6 @@
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I15:K16"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
